--- a/old/collection.xlsx
+++ b/old/collection.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Описание" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,27 +23,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="85">
-  <si>
-    <t xml:space="preserve">Название</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="87">
+  <si>
+    <t xml:space="preserve">title</t>
   </si>
   <si>
     <t xml:space="preserve">Это название теста</t>
   </si>
   <si>
-    <t xml:space="preserve">Правила</t>
+    <t xml:space="preserve">rules</t>
   </si>
   <si>
     <t xml:space="preserve">Правила теста — никому не говорить о тесте</t>
   </si>
   <si>
-    <t xml:space="preserve">Состав вопросов</t>
+    <t xml:space="preserve">mashup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тест по математике</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тест по биологии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тест по географии</t>
   </si>
   <si>
     <t xml:space="preserve">Question</t>
   </si>
   <si>
-    <t xml:space="preserve">1.  Сколько будет 5 + 7?</t>
+    <t xml:space="preserve">Сколько будет 5 + 7?</t>
   </si>
   <si>
     <t xml:space="preserve">Answer</t>
@@ -52,46 +61,46 @@
     <t xml:space="preserve">Weight</t>
   </si>
   <si>
-    <t xml:space="preserve">2.  Какое число на 3 больше, чем 15?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.  Решите уравнение: 2x - 4 = 6</t>
+    <t xml:space="preserve">Какое число на 3 больше, чем 15?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Решите уравнение: 2x - 4 = 6</t>
   </si>
   <si>
     <t xml:space="preserve">x = 5</t>
   </si>
   <si>
-    <t xml:space="preserve">4.  Найдите площадь прямоугольника со сторонами 4 см и 6 см.</t>
+    <t xml:space="preserve">Найдите площадь прямоугольника со сторонами 4 см и 6 см.</t>
   </si>
   <si>
     <t xml:space="preserve">24 см²</t>
   </si>
   <si>
-    <t xml:space="preserve">5.  Какая дробь больше: 1/2 или 2/3?</t>
+    <t xml:space="preserve">Какая дробь больше: 1/2 или 2/3?</t>
   </si>
   <si>
     <t xml:space="preserve">2/3</t>
   </si>
   <si>
-    <t xml:space="preserve">6.  Чему равен куб числа 3?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.  Найдите периметр квадрата со стороной 5 см.</t>
+    <t xml:space="preserve">Чему равен куб числа 3?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Найдите периметр квадрата со стороной 5 см.</t>
   </si>
   <si>
     <t xml:space="preserve">20 см</t>
   </si>
   <si>
-    <t xml:space="preserve">8.  Сколько минут в 2,5 часах?</t>
+    <t xml:space="preserve">Сколько минут в 2,5 часах?</t>
   </si>
   <si>
     <t xml:space="preserve">150 минут</t>
   </si>
   <si>
-    <t xml:space="preserve">9.  Чему равен корень квадратный из 64?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.  Если яблоко стоит 20 рублей, а груша - 30 рублей, сколько стоят 2 яблока и 1 груша?</t>
+    <t xml:space="preserve">Чему равен корень квадратный из 64?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если яблоко стоит 20 рублей, а груша - 30 рублей, сколько стоят 2 яблока и 1 груша?</t>
   </si>
   <si>
     <t xml:space="preserve">70 рублей</t>
@@ -275,9 +284,6 @@
   </si>
   <si>
     <t xml:space="preserve">Марианская впадина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марианская вмятина</t>
   </si>
 </sst>
 </file>
@@ -287,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,13 +316,6 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,19 +325,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -367,28 +359,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -584,57 +568,86 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A2:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.07"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-    </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>3</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -653,274 +666,274 @@
   </sheetPr>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="81.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="7.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="2" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="81.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
+      <c r="A1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
+      <c r="A6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="n">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
+      <c r="A13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="n">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
+      <c r="A17" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2" t="n">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
+      <c r="A21" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
+      <c r="A22" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
+      <c r="A25" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>17</v>
+      <c r="A26" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>8</v>
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="2" t="n">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
+      <c r="A29" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>19</v>
+      <c r="A30" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>8</v>
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="2" t="n">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>5</v>
+      <c r="A33" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>21</v>
+      <c r="A34" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>8</v>
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B36" s="2" t="n">
+      <c r="A36" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>5</v>
+      <c r="A37" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>22</v>
+      <c r="A38" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>8</v>
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="2" t="n">
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -942,274 +955,274 @@
   </sheetPr>
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="103.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="7.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="2" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="103.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
+      <c r="A1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
+      <c r="A2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
+      <c r="A7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="n">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
+      <c r="A11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
+      <c r="A12" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="n">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
+      <c r="A16" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
+      <c r="A17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="n">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
+      <c r="A21" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
+      <c r="A22" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
+      <c r="A23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="2" t="n">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>5</v>
+      <c r="A26" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
+      <c r="A27" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>8</v>
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="2" t="n">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>5</v>
+      <c r="A31" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>36</v>
+      <c r="A32" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>8</v>
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="n">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>5</v>
+      <c r="A36" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>38</v>
+      <c r="A37" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>8</v>
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2" t="n">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>5</v>
+      <c r="A41" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
+      <c r="A42" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>8</v>
+      <c r="A43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="2" t="n">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>5</v>
+      <c r="A46" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>42</v>
+      <c r="A47" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>8</v>
+      <c r="A48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="2" t="n">
+      <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1229,547 +1242,540 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B118" activeCellId="0" sqref="B118"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A119" activeCellId="0" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="53.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="7.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="4" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="53.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="7.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="2" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
+      <c r="A1" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>44</v>
+      <c r="A2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
+      <c r="A7" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>46</v>
+      <c r="A8" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="4" t="n">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
+      <c r="A13" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>48</v>
+      <c r="A14" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="4" t="n">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>5</v>
+      <c r="A19" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>50</v>
+      <c r="A20" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>8</v>
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="4" t="n">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>5</v>
+      <c r="A25" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>52</v>
+      <c r="A26" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>8</v>
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="4" t="n">
+      <c r="A28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>5</v>
+      <c r="A31" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>54</v>
+      <c r="A32" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>8</v>
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="4" t="n">
+      <c r="A34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>5</v>
+      <c r="A37" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>56</v>
+      <c r="A38" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>8</v>
+      <c r="A39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="4" t="n">
+      <c r="A40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>5</v>
+      <c r="A43" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>58</v>
+      <c r="A44" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>8</v>
+      <c r="A45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="4" t="n">
+      <c r="A46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
-        <v>5</v>
+      <c r="A49" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>60</v>
+      <c r="A50" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>8</v>
+      <c r="A51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="4" t="n">
+      <c r="A52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>5</v>
+      <c r="A55" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>62</v>
+      <c r="A56" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>8</v>
+      <c r="A57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="4" t="n">
+      <c r="A58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
-        <v>5</v>
+      <c r="A61" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>64</v>
+      <c r="A62" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>8</v>
+      <c r="A63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="4" t="n">
+      <c r="A64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>5</v>
+      <c r="A67" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
-        <v>66</v>
+      <c r="A68" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>8</v>
+      <c r="A69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="4" t="n">
+      <c r="A70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
-        <v>5</v>
+      <c r="A73" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
-        <v>68</v>
+      <c r="A74" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>8</v>
+      <c r="A75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B76" s="4" t="n">
+      <c r="A76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
-        <v>5</v>
+      <c r="A79" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
-        <v>70</v>
+      <c r="A80" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>8</v>
+      <c r="A81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B82" s="4" t="n">
+      <c r="A82" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
-        <v>5</v>
+      <c r="A85" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
-        <v>72</v>
+      <c r="A86" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>8</v>
+      <c r="A87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B88" s="4" t="n">
+      <c r="A88" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
-        <v>5</v>
+      <c r="A91" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="s">
-        <v>74</v>
+      <c r="A92" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>8</v>
+      <c r="A93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B94" s="4" t="n">
+      <c r="A94" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="s">
-        <v>5</v>
+      <c r="A97" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="s">
-        <v>76</v>
+      <c r="A98" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>8</v>
+      <c r="A99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B100" s="4" t="n">
+      <c r="A100" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B100" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="s">
-        <v>5</v>
+      <c r="A103" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="s">
-        <v>78</v>
+      <c r="A104" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>8</v>
+      <c r="A105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B106" s="4" t="n">
+      <c r="A106" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B106" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="s">
-        <v>5</v>
+      <c r="A109" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="s">
-        <v>80</v>
+      <c r="A110" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>8</v>
+      <c r="A111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B112" s="4" t="n">
+      <c r="A112" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B112" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="s">
-        <v>5</v>
+      <c r="A115" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="s">
-        <v>82</v>
+      <c r="A116" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>8</v>
+      <c r="A117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B118" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B119" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="A118" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
